--- a/EvaluationFunction2.xlsx
+++ b/EvaluationFunction2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shukurikotaro/Desktop/PBL_前田_オセロ/OthelloArenaPython-master/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shukurikotaro/Desktop/PBL_前田_オセロ/OthelloArenaPython-master_donguri/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5DBDDAC-D9F0-EE46-B707-A841E04EC88C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF4C7FD7-65CA-3F46-8FB0-C450BD4E07A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7540" yWindow="500" windowWidth="28300" windowHeight="17440" xr2:uid="{CBCA882D-5BAC-CD41-B76A-282492414AD0}"/>
+    <workbookView xWindow="2880" yWindow="500" windowWidth="28300" windowHeight="17440" xr2:uid="{CBCA882D-5BAC-CD41-B76A-282492414AD0}"/>
   </bookViews>
   <sheets>
     <sheet name="EvaluationFunction" sheetId="1" r:id="rId1"/>
@@ -413,7 +413,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -423,54 +423,54 @@
   <sheetData>
     <row r="1" spans="1:8" ht="25" customHeight="1">
       <c r="A1" s="1">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="B1" s="1">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="C1" s="1">
         <v>0</v>
       </c>
       <c r="D1" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E1" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F1" s="1">
         <v>0</v>
       </c>
       <c r="G1" s="1">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="H1" s="1">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="25" customHeight="1">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="B2" s="1">
-        <v>0</v>
+        <v>-45</v>
       </c>
       <c r="C2" s="1">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D2" s="1">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="E2" s="1">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="F2" s="1">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="G2" s="1">
-        <v>0</v>
+        <v>-99</v>
       </c>
       <c r="H2" s="1">
-        <v>0</v>
+        <v>-30</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="25" customHeight="1">
@@ -478,22 +478,22 @@
         <v>0</v>
       </c>
       <c r="B3" s="1">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E3" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="H3" s="1">
         <v>0</v>
@@ -501,54 +501,54 @@
     </row>
     <row r="4" spans="1:8" ht="25" customHeight="1">
       <c r="A4" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B4" s="1">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="C4" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D4" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E4" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F4" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G4" s="1">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="H4" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="25" customHeight="1">
       <c r="A5" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B5" s="1">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="C5" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D5" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F5" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G5" s="1">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="H5" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="25" customHeight="1">
@@ -556,22 +556,22 @@
         <v>0</v>
       </c>
       <c r="B6" s="1">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
       </c>
       <c r="D6" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="H6" s="1">
         <v>0</v>
@@ -579,54 +579,54 @@
     </row>
     <row r="7" spans="1:8" ht="25" customHeight="1">
       <c r="A7" s="1">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="B7" s="1">
-        <v>0</v>
+        <v>-99</v>
       </c>
       <c r="C7" s="1">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D7" s="1">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="F7" s="1">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="G7" s="1">
-        <v>0</v>
+        <v>-45</v>
       </c>
       <c r="H7" s="1">
-        <v>0</v>
+        <v>-30</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="25" customHeight="1">
       <c r="A8" s="1">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="B8" s="1">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
       </c>
       <c r="D8" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E8" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="H8" s="1">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
